--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -5,35 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgu\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_7BAE928675DC6F2AE1E85D869446E9E15426D3EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B18825-51C4-4BA4-88EC-187386BB5821}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A64606-3597-49E9-90AA-9238C7CCD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Barge" sheetId="1" r:id="rId1"/>
-    <sheet name="Train" sheetId="2" r:id="rId2"/>
-    <sheet name="Truck" sheetId="3" r:id="rId3"/>
-    <sheet name="All" sheetId="5" r:id="rId4"/>
-    <sheet name="N" sheetId="7" r:id="rId5"/>
-    <sheet name="T" sheetId="8" r:id="rId6"/>
-    <sheet name="K" sheetId="11" r:id="rId7"/>
-    <sheet name="o" sheetId="9" r:id="rId8"/>
-    <sheet name="R_5" sheetId="12" r:id="rId9"/>
+    <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
+    <sheet name="Barge" sheetId="1" r:id="rId2"/>
+    <sheet name="Train" sheetId="2" r:id="rId3"/>
+    <sheet name="Truck" sheetId="3" r:id="rId4"/>
+    <sheet name="All" sheetId="5" r:id="rId5"/>
+    <sheet name="N" sheetId="7" r:id="rId6"/>
+    <sheet name="T" sheetId="8" r:id="rId7"/>
+    <sheet name="K" sheetId="11" r:id="rId8"/>
+    <sheet name="o" sheetId="9" r:id="rId9"/>
+    <sheet name="R_5" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="181">
   <si>
     <t>N</t>
   </si>
@@ -524,6 +522,66 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Delta1</t>
+  </si>
+  <si>
+    <t>Euromax1</t>
+  </si>
+  <si>
+    <t>HOME1</t>
+  </si>
+  <si>
+    <t>Moerdijk1</t>
+  </si>
+  <si>
+    <t>Venlo1</t>
+  </si>
+  <si>
+    <t>Duisburg1</t>
+  </si>
+  <si>
+    <t>Willebroek1</t>
+  </si>
+  <si>
+    <t>Neuss1</t>
+  </si>
+  <si>
+    <t>Dortmund1</t>
+  </si>
+  <si>
+    <t>Nuremberg1</t>
+  </si>
+  <si>
+    <t>Delta2</t>
+  </si>
+  <si>
+    <t>Euromax2</t>
+  </si>
+  <si>
+    <t>HOME2</t>
+  </si>
+  <si>
+    <t>Moerdijk2</t>
+  </si>
+  <si>
+    <t>Venlo2</t>
+  </si>
+  <si>
+    <t>Duisburg2</t>
+  </si>
+  <si>
+    <t>Willebroek2</t>
+  </si>
+  <si>
+    <t>Neuss2</t>
+  </si>
+  <si>
+    <t>Dortmund2</t>
+  </si>
+  <si>
+    <t>Nuremberg2</t>
   </si>
 </sst>
 </file>
@@ -583,7 +641,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,7 +657,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,20 +976,3134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
+  <dimension ref="A1:AE31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17.16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44.616</v>
+      </c>
+      <c r="G2" s="2">
+        <v>54.911999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>58.344000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>46.332000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="H3" s="2">
+        <v>39.468000000000004</v>
+      </c>
+      <c r="I3" s="2">
+        <v>60.06</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10.295999999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>53.195999999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17.16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.295999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>34.32</v>
+      </c>
+      <c r="G5" s="2">
+        <v>41.183999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44.616</v>
+      </c>
+      <c r="C6" s="2">
+        <v>46.332000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>34.32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>54.911999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="D7" s="2">
+        <v>53.195999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>41.183999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>39.468000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>36.036000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>58.344000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60.06</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.58</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P12" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>84.941999999999993</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S12" s="2">
+        <v>70.784999999999997</v>
+      </c>
+      <c r="T12" s="2">
+        <v>99.099000000000004</v>
+      </c>
+      <c r="U12" s="2">
+        <v>212.35499999999999</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P13" s="2">
+        <v>63.706499999999998</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>92.020499999999998</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S13" s="2">
+        <v>77.863500000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <v>106.17749999999999</v>
+      </c>
+      <c r="U13" s="2">
+        <v>219.43349999999998</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P14" s="2">
+        <v>49.549500000000002</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>77.863500000000002</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>42.470999999999997</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L16" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="M16" s="2">
+        <v>63.706499999999998</v>
+      </c>
+      <c r="N16" s="2">
+        <v>49.549500000000002</v>
+      </c>
+      <c r="O16" s="2">
+        <v>42.470999999999997</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S16" s="2">
+        <v>21.235499999999998</v>
+      </c>
+      <c r="T16" s="2">
+        <v>35.392499999999998</v>
+      </c>
+      <c r="U16" s="2">
+        <v>155.727</v>
+      </c>
+      <c r="V16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="2">
+        <v>84.941999999999993</v>
+      </c>
+      <c r="M17" s="2">
+        <v>92.020499999999998</v>
+      </c>
+      <c r="N17" s="2">
+        <v>77.863500000000002</v>
+      </c>
+      <c r="O17" s="2">
+        <v>56.628</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T17" s="2">
+        <v>21.235499999999998</v>
+      </c>
+      <c r="U17" s="2">
+        <v>141.57</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L19" s="2">
+        <v>70.784999999999997</v>
+      </c>
+      <c r="M19" s="2">
+        <v>77.863500000000002</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P19" s="2">
+        <v>21.235499999999998</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L20" s="2">
+        <v>99.099000000000004</v>
+      </c>
+      <c r="M20" s="2">
+        <v>106.17749999999999</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P20" s="2">
+        <v>35.392499999999998</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>21.235499999999998</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>212.35499999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>219.43349999999998</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P21" s="2">
+        <v>155.727</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>141.57</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="X22" s="2">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>172.887</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>132.99</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>265.98</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>598.45500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V23" s="2">
+        <v>13.299000000000001</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>279.279</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>631.70249999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U24" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V24" s="2">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="W24" s="2">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>152.9385</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>585.15600000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V25" s="2">
+        <v>66.495000000000005</v>
+      </c>
+      <c r="W25" s="2">
+        <v>79.794000000000011</v>
+      </c>
+      <c r="X25" s="2">
+        <v>39.897000000000006</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>119.691</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V26" s="2">
+        <v>172.887</v>
+      </c>
+      <c r="W26" s="2">
+        <v>186.18600000000001</v>
+      </c>
+      <c r="X26" s="2">
+        <v>152.9385</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>119.691</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>438.86700000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V27" s="2">
+        <v>212.78400000000002</v>
+      </c>
+      <c r="W27" s="2">
+        <v>219.43350000000001</v>
+      </c>
+      <c r="X27" s="2">
+        <v>179.53650000000002</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>159.58800000000002</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>53.196000000000005</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>398.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V28" s="2">
+        <v>132.99</v>
+      </c>
+      <c r="W28" s="2">
+        <v>146.28900000000002</v>
+      </c>
+      <c r="X28" s="2">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>84.227000000000004</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V29" s="2">
+        <v>232.73250000000002</v>
+      </c>
+      <c r="W29" s="2">
+        <v>239.38200000000001</v>
+      </c>
+      <c r="X29" s="2">
+        <v>199.48500000000001</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>33.247500000000002</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="V30" s="2">
+        <v>265.98</v>
+      </c>
+      <c r="W30" s="2">
+        <v>279.279</v>
+      </c>
+      <c r="X30" s="2">
+        <v>226.08300000000003</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>99.742500000000007</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>59.845500000000001</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>598.45500000000004</v>
+      </c>
+      <c r="W31" s="2">
+        <v>631.70249999999999</v>
+      </c>
+      <c r="X31" s="2">
+        <v>585.15600000000006</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>438.86700000000002</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>398.97</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C81619-2CB3-4205-9A1B-A2F4AB9AA2E4}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>110</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>164</v>
+      </c>
+      <c r="E3">
+        <v>116</v>
+      </c>
+      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+      <c r="E5">
+        <v>73</v>
+      </c>
+      <c r="F5">
+        <v>97</v>
+      </c>
+      <c r="G5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>192</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6">
+        <v>192</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +4138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +4173,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +4208,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +4243,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +4278,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,7 +4313,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +4348,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +4383,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +4418,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +4453,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1322,21 +4494,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +4543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,7 +4578,7 @@
         <v>212.35499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +4613,7 @@
         <v>219.43349999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +4648,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1511,7 +4683,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1546,7 +4718,7 @@
         <v>155.727</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +4753,7 @@
         <v>141.57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +4788,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +4823,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1686,7 +4858,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1726,24 +4898,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1778,7 +4950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +4985,7 @@
         <v>598.45500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +5020,7 @@
         <v>631.70249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +5055,7 @@
         <v>585.15600000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +5090,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +5125,7 @@
         <v>438.86700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +5160,7 @@
         <v>398.97</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +5195,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2058,7 +5230,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2093,7 +5265,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +5306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -2142,16 +5314,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +5393,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +5428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +5463,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2326,7 +5498,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +5533,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +5568,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +5603,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2466,7 +5638,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +5673,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +5713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AB60B7-0BE9-4A51-99A8-2B751EAF4FF8}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2549,127 +5721,59 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2680,6 +5784,74 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G117"/>
   <sheetViews>
@@ -2687,9 +5859,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +5884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2735,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2758,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2781,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2804,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2850,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2873,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2896,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2919,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2942,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2965,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2988,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3011,7 +6183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3034,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -3057,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3080,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -3103,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -3126,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3149,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3172,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -3195,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3241,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -3264,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3287,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3310,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3333,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3356,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -3379,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3402,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3425,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -3448,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3471,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3494,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3517,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -3540,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3563,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -3586,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3609,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3632,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3655,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -3678,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3701,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -3724,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -3747,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -3770,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -3793,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -3816,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3839,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -3862,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -3885,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3908,7 +7080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -3931,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -3954,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -3977,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4000,7 +7172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4023,7 +7195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4046,7 +7218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -4069,7 +7241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -4092,7 +7264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -4115,7 +7287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -4138,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -4161,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4184,7 +7356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -4207,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4230,7 +7402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -4253,7 +7425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -4276,7 +7448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4299,7 +7471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -4322,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -4345,7 +7517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -4368,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -4391,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -4414,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4437,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4460,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -4483,7 +7655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -4506,7 +7678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -4529,7 +7701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -4552,7 +7724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -4575,7 +7747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -4598,7 +7770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -4621,7 +7793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -4644,7 +7816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -4667,7 +7839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -4690,7 +7862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -4713,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -4736,7 +7908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -4759,7 +7931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -4782,7 +7954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -4805,7 +7977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -4828,7 +8000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -4851,7 +8023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -4874,7 +8046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -4897,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -4920,7 +8092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -4943,7 +8115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -4966,7 +8138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -4989,7 +8161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -5012,7 +8184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -5035,7 +8207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -5058,7 +8230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -5081,7 +8253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -5104,7 +8276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -5127,7 +8299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -5150,7 +8322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -5173,7 +8345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -5196,7 +8368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -5219,7 +8391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -5242,7 +8414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -5265,7 +8437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -5288,7 +8460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -5311,7 +8483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -5334,7 +8506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -5357,7 +8529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -5385,7 +8557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47BDEC-8BD7-4D64-846E-57A2265346D3}">
   <dimension ref="A1:C117"/>
   <sheetViews>
@@ -5393,9 +8565,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -5406,7 +8578,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5417,7 +8589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5428,7 +8600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5439,7 +8611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -5450,7 +8622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5461,7 +8633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5472,7 +8644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -5483,7 +8655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -5494,7 +8666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5505,7 +8677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -5516,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -5527,7 +8699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -5538,7 +8710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -5549,7 +8721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -5560,7 +8732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5571,7 +8743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -5582,7 +8754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -5593,7 +8765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -5604,7 +8776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -5615,7 +8787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -5626,7 +8798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -5637,7 +8809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -5648,7 +8820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -5659,7 +8831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -5670,7 +8842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -5681,7 +8853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -5692,7 +8864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5703,7 +8875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -5714,7 +8886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -5725,7 +8897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -5736,7 +8908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -5747,7 +8919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -5758,7 +8930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +8941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -5780,7 +8952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -5791,7 +8963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5802,7 +8974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -5813,7 +8985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -5824,7 +8996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -5835,7 +9007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -5846,7 +9018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -5857,7 +9029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -5868,7 +9040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -5879,7 +9051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -5890,7 +9062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -5901,7 +9073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -5912,7 +9084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -5923,7 +9095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -5934,7 +9106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -5945,7 +9117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -5956,7 +9128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -5967,7 +9139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -5978,7 +9150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -5989,7 +9161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -6000,7 +9172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -6011,7 +9183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -6022,7 +9194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -6033,7 +9205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -6044,7 +9216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -6055,7 +9227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -6066,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -6077,7 +9249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -6088,7 +9260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -6099,7 +9271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -6110,7 +9282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -6121,7 +9293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -6132,7 +9304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -6143,7 +9315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -6154,7 +9326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -6165,7 +9337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -6176,7 +9348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -6187,7 +9359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -6198,7 +9370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -6209,7 +9381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -6220,7 +9392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -6231,7 +9403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -6242,7 +9414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -6253,7 +9425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -6264,7 +9436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -6275,7 +9447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -6286,7 +9458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -6297,7 +9469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -6308,7 +9480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -6319,7 +9491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -6330,7 +9502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -6341,7 +9513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -6352,7 +9524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -6363,7 +9535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -6374,7 +9546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -6385,7 +9557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -6396,7 +9568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -6407,7 +9579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -6418,7 +9590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -6429,7 +9601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -6440,7 +9612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -6451,7 +9623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -6462,7 +9634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -6473,7 +9645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -6484,7 +9656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -6495,7 +9667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -6506,7 +9678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -6517,7 +9689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -6528,7 +9700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -6539,7 +9711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -6550,7 +9722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -6561,7 +9733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -6572,7 +9744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -6583,7 +9755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -6594,7 +9766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -6605,7 +9777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -6616,7 +9788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -6627,7 +9799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -6638,7 +9810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -6649,7 +9821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -6660,7 +9832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -6671,7 +9843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -6680,159 +9852,6 @@
       </c>
       <c r="C117" t="s">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C81619-2CB3-4205-9A1B-A2F4AB9AA2E4}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>62</v>
-      </c>
-      <c r="D2">
-        <v>110</v>
-      </c>
-      <c r="E2">
-        <v>62</v>
-      </c>
-      <c r="F2">
-        <v>110</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>116</v>
-      </c>
-      <c r="D3">
-        <v>164</v>
-      </c>
-      <c r="E3">
-        <v>116</v>
-      </c>
-      <c r="F3">
-        <v>164</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>68</v>
-      </c>
-      <c r="E4">
-        <v>44</v>
-      </c>
-      <c r="F4">
-        <v>68</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <v>97</v>
-      </c>
-      <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>97</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>192</v>
-      </c>
-      <c r="E6">
-        <v>120</v>
-      </c>
-      <c r="F6">
-        <v>192</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgu\PycharmProjects\BEP_try_3.0\Instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A64606-3597-49E9-90AA-9238C7CCD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A08729-2586-4F1E-867A-8D885A4B42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Truck" sheetId="3" r:id="rId4"/>
     <sheet name="All" sheetId="5" r:id="rId5"/>
     <sheet name="N" sheetId="7" r:id="rId6"/>
-    <sheet name="T" sheetId="8" r:id="rId7"/>
-    <sheet name="K" sheetId="11" r:id="rId8"/>
-    <sheet name="o" sheetId="9" r:id="rId9"/>
-    <sheet name="R_5" sheetId="12" r:id="rId10"/>
+    <sheet name="N_All" sheetId="14" r:id="rId7"/>
+    <sheet name="T" sheetId="8" r:id="rId8"/>
+    <sheet name="K" sheetId="11" r:id="rId9"/>
+    <sheet name="o" sheetId="9" r:id="rId10"/>
+    <sheet name="R_5" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="182">
   <si>
     <t>N</t>
   </si>
@@ -582,6 +583,9 @@
   </si>
   <si>
     <t>Nuremberg2</t>
+  </si>
+  <si>
+    <t>N_All</t>
   </si>
 </sst>
 </file>
@@ -641,7 +645,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,7 +661,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -3936,6 +3940,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47BDEC-8BD7-4D64-846E-57A2265346D3}">
+  <dimension ref="A1:C117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C81619-2CB3-4205-9A1B-A2F4AB9AA2E4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5310,7 +6616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -5718,7 +7024,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5784,6 +7090,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8153B036-FE5E-4DC3-979D-FBA930CA6D11}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -5851,11 +7327,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -8555,1306 +10031,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47BDEC-8BD7-4D64-846E-57A2265346D3}">
-  <dimension ref="A1:C117"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A08729-2586-4F1E-867A-8D885A4B42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49B85F-DFF7-4BC1-B34F-B6904B3BCF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="9048" windowHeight="9408" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
@@ -983,15 +983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -7093,7 +7091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8153B036-FE5E-4DC3-979D-FBA930CA6D11}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF49B85F-DFF7-4BC1-B34F-B6904B3BCF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E22CBF-DAC7-4898-83D3-C8B8F59FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="9048" windowHeight="9408" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="183">
   <si>
     <t>N</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>N_All</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -983,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7092,7 +7095,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7261,7 +7264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -7327,10 +7330,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10026,6 +10029,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E22CBF-DAC7-4898-83D3-C8B8F59FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C0403-4142-48F4-9BF7-78FBE85B83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
@@ -7332,8 +7332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10033,6 +10033,24 @@
       <c r="A118" t="s">
         <v>182</v>
       </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\PycharmProjects\BEP_try_3.0\Instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joepl\PycharmProjects\BEP_try_3.0\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C0403-4142-48F4-9BF7-78FBE85B83C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E38B12-5A3A-4583-BF44-C47CE89A4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="9048" windowHeight="9408" tabRatio="773" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
@@ -986,11 +986,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC33" sqref="AC33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1560,7 +1562,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1657,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1752,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>161</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -2225,7 +2227,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>165</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>166</v>
       </c>
@@ -2605,7 +2607,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>167</v>
       </c>
@@ -2700,7 +2702,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>168</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>169</v>
       </c>
@@ -2890,7 +2892,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>170</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>171</v>
       </c>
@@ -3080,7 +3082,7 @@
         <v>598.45500000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>172</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>631.70249999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -3270,7 +3272,7 @@
         <v>585.15600000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>174</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>438.86700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>176</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>398.97</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>177</v>
       </c>
@@ -3650,7 +3652,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>178</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>179</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -3948,9 +3950,9 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -4104,7 +4106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -4126,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -4148,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4247,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -4357,7 +4359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -4379,7 +4381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -4390,7 +4392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -4500,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -4676,7 +4678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4720,7 +4722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -4742,7 +4744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -4764,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -4786,7 +4788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -4852,7 +4854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -4863,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -4962,7 +4964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -4984,7 +4986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -4995,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -5050,7 +5052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -5138,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -5182,7 +5184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -5215,7 +5217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -5226,7 +5228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -5250,9 +5252,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -5275,7 +5277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5403,14 +5405,14 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5692,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -5760,7 +5762,7 @@
         <v>228800000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5809,13 +5811,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5850,7 +5852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>212.35499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>219.43349999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>155.727</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>141.57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>314600000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -6210,19 +6212,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B2" sqref="B2:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6292,7 +6294,7 @@
         <v>598.45500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>631.70249999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>585.15600000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6432,7 +6434,7 @@
         <v>438.86700000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>398.97</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>886600000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -6621,16 +6623,16 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6735,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6980,7 +6982,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7028,59 +7030,59 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7098,159 +7100,159 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -7266,59 +7268,59 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7332,13 +7334,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7430,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7522,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -7545,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -7660,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -7775,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -7798,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -7959,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -7982,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -8028,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -8120,7 +8122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -8166,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -8212,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -8235,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -8327,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -8419,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -8442,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -8488,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>87</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -8718,7 +8720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -8787,7 +8789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -8810,7 +8812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -8856,7 +8858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>97</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>98</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>99</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>101</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -9040,7 +9042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>107</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -9132,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>111</v>
       </c>
@@ -9201,7 +9203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -9224,7 +9226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -9247,7 +9249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -9293,7 +9295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -9316,7 +9318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -9339,7 +9341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -9362,7 +9364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -9431,7 +9433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -9454,7 +9456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -9546,7 +9548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -9569,7 +9571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -9661,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -9730,7 +9732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -9776,7 +9778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -9891,7 +9893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -9914,7 +9916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -9960,7 +9962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -9983,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -10006,7 +10008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -10029,7 +10031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>182</v>
       </c>

--- a/Instances/E_EGS-r.xlsx
+++ b/Instances/E_EGS-r.xlsx
@@ -1,38 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joepl\PycharmProjects\BEP_try_3.0\Instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07ed5a09c14e9223/BEP/Bestanden Bilge/Instances (Synchromodal transport planning with flexible services Mathematical model and heuristic approach)/Instances/6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E38B12-5A3A-4583-BF44-C47CE89A4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="343" documentId="11_7BAE928675DC6F2AE1E85D869446E9E15426D3EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C632FD5B-109C-4D78-B26A-EFCD4FDAD3D1}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="All_vehicles" sheetId="13" r:id="rId1"/>
+    <sheet name="Allv" sheetId="13" r:id="rId1"/>
     <sheet name="Barge" sheetId="1" r:id="rId2"/>
     <sheet name="Train" sheetId="2" r:id="rId3"/>
     <sheet name="Truck" sheetId="3" r:id="rId4"/>
     <sheet name="All" sheetId="5" r:id="rId5"/>
     <sheet name="N" sheetId="7" r:id="rId6"/>
-    <sheet name="N_All" sheetId="14" r:id="rId7"/>
-    <sheet name="T" sheetId="8" r:id="rId8"/>
-    <sheet name="K" sheetId="11" r:id="rId9"/>
-    <sheet name="o" sheetId="9" r:id="rId10"/>
-    <sheet name="R_5" sheetId="12" r:id="rId11"/>
+    <sheet name="T" sheetId="8" r:id="rId7"/>
+    <sheet name="K" sheetId="11" r:id="rId8"/>
+    <sheet name="o" sheetId="9" r:id="rId9"/>
+    <sheet name="R_5" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="181">
   <si>
     <t>N</t>
   </si>
@@ -583,12 +585,6 @@
   </si>
   <si>
     <t>Nuremberg2</t>
-  </si>
-  <si>
-    <t>N_All</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
 </sst>
 </file>
@@ -983,18 +979,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1FB023-00AF-42EC-8246-9383238A84C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B3DF2-82A0-4881-AD66-16B5290971D2}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3743,8 +3742,8 @@
       <c r="AD29" s="2">
         <v>1000000</v>
       </c>
-      <c r="AE29" s="2">
-        <v>1000000</v>
+      <c r="AE29">
+        <v>393.65040000000005</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -3927,8 +3926,8 @@
       <c r="AB31" s="2">
         <v>1000000</v>
       </c>
-      <c r="AC31" s="2">
-        <v>1000000</v>
+      <c r="AC31">
+        <v>393.65040000000005</v>
       </c>
       <c r="AD31" s="2">
         <v>1000000</v>
@@ -3943,1308 +3942,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47BDEC-8BD7-4D64-846E-57A2265346D3}">
-  <dimension ref="A1:C117"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C81619-2CB3-4205-9A1B-A2F4AB9AA2E4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5401,15 +4098,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="11" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5626,21 +4324,11 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>54.911999999999999</v>
-      </c>
-      <c r="C7" s="2">
-        <v>56.628</v>
-      </c>
-      <c r="D7" s="2">
-        <v>53.195999999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>41.183999999999997</v>
-      </c>
-      <c r="F7" s="2">
-        <v>228800000</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>0</v>
       </c>
@@ -5661,21 +4349,11 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>37.752000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>39.468000000000004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36.036000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>228800000</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>228800000</v>
       </c>
@@ -5696,21 +4374,11 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>58.344000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60.06</v>
-      </c>
-      <c r="D9" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>228800000</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>8.58</v>
       </c>
@@ -5731,21 +4399,11 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="D10" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>228800000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>228800000</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>228800000</v>
       </c>
@@ -5808,7 +4466,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6212,7 +4870,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6619,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7027,7 +5685,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7093,18 +5751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8153B036-FE5E-4DC3-979D-FBA930CA6D11}">
-  <dimension ref="A1:A31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7155,106 +5811,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7263,79 +5819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7D789-45BF-49AF-B085-C0D33A463D09}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA89C9B-3D6A-45B9-B7D6-07F0C8919DAB}">
-  <dimension ref="A1:G118"/>
-  <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -10031,27 +8519,1306 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>182</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47BDEC-8BD7-4D64-846E-57A2265346D3}">
+  <dimension ref="A1:C117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>138</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>147</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
